--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,18 +1274,835 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
           <t>har</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>vg</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sarbani</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>cr</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>vg</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>cv</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>xc</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>dr</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>cv</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>gz</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ph</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>bh</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>qw</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>uz</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>vg</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>cf</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>fc</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>fc</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>fc</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>cf</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cf</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>sx</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>sx</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>sx</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
